--- a/Ext_Data/Termolog_Calcolo_Dinamico_Orario/Correction_Factors.xlsx
+++ b/Ext_Data/Termolog_Calcolo_Dinamico_Orario/Correction_Factors.xlsx
@@ -199,13 +199,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.26"/>
   </cols>
@@ -263,6 +263,9 @@
       <c r="F3" s="0" t="n">
         <v>79</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>56.71</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -330,6 +333,9 @@
       </c>
       <c r="F7" s="0" t="n">
         <v>106</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>105.28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
